--- a/medicine/Enfance/Jean-Jacques_Busino/Jean-Jacques_Busino.xlsx
+++ b/medicine/Enfance/Jean-Jacques_Busino/Jean-Jacques_Busino.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Jacques Busino ou Giacomo Busino, né le 16 janvier 1965 à Genève de parents italien. Son acte de naissance est établi au nom de Giacomo Ugo Busino. Ces premiers papiers suisses seront établis au nom de Jean-Jacques Hugues Busino. Romancier suisse de langue française, auteur de roman policier et de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un père sociologue et d'une mère historienne d'art, il grandit au milieu des livres. D'abord animateur dans un centre d'accueil spécialisé, il a une vingtaine d'années quand il se lance dans la vente avec un magasin de disques qui devient également une société de production et d'enregistrement.
 Il amorce sa carrière littéraire en 1993 avec la publication de François Guérif de Rivages/Noir, puis des nouvelles comme Cinq minutes de la vie d'un homme après un requiem, une nouvelle policière dans le magazine Polar. Un café, une cigarette, un roman noir qui narre le destin d'un jeune homme idéaliste découvrant à Naples l'exploitation des enfants par la Mafia dans le milieu sordide de la prostitution juvénile. Le Bal des capons (1997) se déroule dans une Suisse aux antipodes de la société d'opulence qui lui est souvent accolée et raconte l'assassinat d'un père abject et violent par son fils.  Dans ses récits policiers, Busino est souvent affilié aux auteurs Jim Thompson et Robin Cook.  
@@ -546,23 +560,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans policiers
-Un café, une cigarette, Rivages/Noir no 172, 1993
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Un café, une cigarette, Rivages/Noir no 172, 1993
 Dieu a tort, Rivages/Noir no 236, 1995
 Le Bal des capons, Rivages/Noir no 278, 1997
 Au nom de piètre qui a l'essieu, Baleine no 103 « Le Poulpe », 1997
 La Nuit des otages, Zulma, 1997
 La Dette du diable, Rivages/Noir no 311, 1998
 Le Théorème de l'autre, Rivages/Noir no 358, 2000
-Cancer du Capricorne, Éditions Payot &amp; Rivages, 2009
-Ouvrages de littérature d'enfance et de jeunesse
-Classe foot, Syros, « Souris noire » no 46, 1999
-Sac de nœuds, Flammarion, « Tribal », 1999
-Chicoutimi : jusqu'où les eaux sont profondes, Flammarion, « Tribal », 2002
-Nouvelles
-Cinq minutes de la vie d'un homme après un requiem, dans Polar no 17, 1981
-Une nuit de la mort qui tue, dans le recueil collectif Neuf morts et demi, Zulma, « Quatre-bis » no 7, 1997
-Fils de Naples, dans le recueil collectif Naples, Eden no 1, 1999</t>
+Cancer du Capricorne, Éditions Payot &amp; Rivages, 2009</t>
         </is>
       </c>
     </row>
@@ -587,12 +598,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Prix et distinctions</t>
+          <t>Œuvre</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Prix Pittard de l'Andelyn 2011 pour Cancer du Capricorne</t>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Classe foot, Syros, « Souris noire » no 46, 1999
+Sac de nœuds, Flammarion, « Tribal », 1999
+Chicoutimi : jusqu'où les eaux sont profondes, Flammarion, « Tribal », 2002</t>
         </is>
       </c>
     </row>
@@ -617,10 +636,82 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Cinq minutes de la vie d'un homme après un requiem, dans Polar no 17, 1981
+Une nuit de la mort qui tue, dans le recueil collectif Neuf morts et demi, Zulma, « Quatre-bis » no 7, 1997
+Fils de Naples, dans le recueil collectif Naples, Eden no 1, 1999</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Jacques_Busino</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Jacques_Busino</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Prix Pittard de l'Andelyn 2011 pour Cancer du Capricorne</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean-Jacques_Busino</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Jacques_Busino</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 1 : A - I, Nantes, Joseph K, coll. « Temps noir », 2007, 1054 p. (ISBN 978-2-910-68644-4, OCLC 315873251), p. 331-332.</t>
         </is>
